--- a/dmd_app/01_ドキュメント/02_ドキュメントの作成に使用した図一覧.xlsx
+++ b/dmd_app/01_ドキュメント/02_ドキュメントの作成に使用した図一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\dmd_app\01_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07036CA-E642-42B6-A331-16B4123A5465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0C6122-7EEA-4E49-AA62-9B15698CEA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E43B8608-6630-422C-8FB8-DD66C3993456}"/>
   </bookViews>
@@ -17275,15 +17275,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73381944-CB5D-4BFE-BBAF-D15EC77BBBF3}">
-  <dimension ref="A1:GN194"/>
+  <dimension ref="A1:GR194"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BD14" sqref="BD14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CA90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="GR104" sqref="GR104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="2.44140625" style="1"/>
+    <col min="1" max="199" width="2.44140625" style="1"/>
+    <col min="200" max="200" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="201" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="18.75" customHeight="1">
@@ -17471,16 +17473,6 @@
       <c r="L7" s="2"/>
       <c r="N7" s="4"/>
       <c r="P7" s="5"/>
-    </row>
-    <row r="12" spans="1:71" ht="15" customHeight="1">
-      <c r="BD12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:71" ht="15" customHeight="1">
-      <c r="BD13" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="26" spans="11:71" ht="15" customHeight="1">
       <c r="K26" s="17" t="s">
@@ -18058,30 +18050,30 @@
       <c r="H96" s="10"/>
       <c r="AU96" s="11"/>
     </row>
-    <row r="97" spans="8:196" ht="15" customHeight="1">
+    <row r="97" spans="8:200" ht="15" customHeight="1">
       <c r="H97" s="10"/>
       <c r="T97" s="16" t="s">
         <v>14</v>
       </c>
       <c r="AU97" s="11"/>
     </row>
-    <row r="98" spans="8:196" ht="15" customHeight="1">
+    <row r="98" spans="8:200" ht="15" customHeight="1">
       <c r="H98" s="10"/>
       <c r="AU98" s="11"/>
     </row>
-    <row r="99" spans="8:196" ht="15" customHeight="1">
+    <row r="99" spans="8:200" ht="15" customHeight="1">
       <c r="H99" s="10"/>
       <c r="AU99" s="11"/>
     </row>
-    <row r="100" spans="8:196" ht="15" customHeight="1">
+    <row r="100" spans="8:200" ht="15" customHeight="1">
       <c r="H100" s="10"/>
       <c r="AU100" s="11"/>
     </row>
-    <row r="101" spans="8:196" ht="15" customHeight="1">
+    <row r="101" spans="8:200" ht="15" customHeight="1">
       <c r="H101" s="10"/>
       <c r="AU101" s="11"/>
     </row>
-    <row r="102" spans="8:196" ht="15" customHeight="1">
+    <row r="102" spans="8:200" ht="15" customHeight="1">
       <c r="H102" s="12"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
@@ -18194,19 +18186,25 @@
       <c r="GM102" s="8"/>
       <c r="GN102" s="9"/>
     </row>
-    <row r="103" spans="8:196" ht="15" customHeight="1">
+    <row r="103" spans="8:200" ht="15" customHeight="1">
       <c r="DV103" s="10"/>
       <c r="GN103" s="11"/>
+      <c r="GR103" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="104" spans="8:196" ht="15" customHeight="1">
+    <row r="104" spans="8:200" ht="15" customHeight="1">
       <c r="DV104" s="10"/>
       <c r="GN104" s="11"/>
+      <c r="GR104" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="105" spans="8:196" ht="15" customHeight="1">
+    <row r="105" spans="8:200" ht="15" customHeight="1">
       <c r="DV105" s="10"/>
       <c r="GN105" s="11"/>
     </row>
-    <row r="106" spans="8:196" ht="15" customHeight="1">
+    <row r="106" spans="8:200" ht="15" customHeight="1">
       <c r="H106" s="7"/>
       <c r="I106" s="8"/>
       <c r="J106" s="8" t="s">
@@ -18319,25 +18317,25 @@
       <c r="DV106" s="10"/>
       <c r="GN106" s="11"/>
     </row>
-    <row r="107" spans="8:196" ht="15" customHeight="1">
+    <row r="107" spans="8:200" ht="15" customHeight="1">
       <c r="H107" s="10"/>
       <c r="DJ107" s="11"/>
       <c r="DV107" s="10"/>
       <c r="GN107" s="11"/>
     </row>
-    <row r="108" spans="8:196" ht="15" customHeight="1">
+    <row r="108" spans="8:200" ht="15" customHeight="1">
       <c r="H108" s="10"/>
       <c r="DJ108" s="11"/>
       <c r="DV108" s="10"/>
       <c r="GN108" s="11"/>
     </row>
-    <row r="109" spans="8:196" ht="15" customHeight="1">
+    <row r="109" spans="8:200" ht="15" customHeight="1">
       <c r="H109" s="10"/>
       <c r="DJ109" s="11"/>
       <c r="DV109" s="10"/>
       <c r="GN109" s="11"/>
     </row>
-    <row r="110" spans="8:196" ht="15" customHeight="1">
+    <row r="110" spans="8:200" ht="15" customHeight="1">
       <c r="H110" s="10"/>
       <c r="AA110" s="16" t="s">
         <v>18</v>
@@ -18346,13 +18344,13 @@
       <c r="DV110" s="10"/>
       <c r="GN110" s="11"/>
     </row>
-    <row r="111" spans="8:196" ht="15" customHeight="1">
+    <row r="111" spans="8:200" ht="15" customHeight="1">
       <c r="H111" s="10"/>
       <c r="DJ111" s="11"/>
       <c r="DV111" s="10"/>
       <c r="GN111" s="11"/>
     </row>
-    <row r="112" spans="8:196" ht="15" customHeight="1">
+    <row r="112" spans="8:200" ht="15" customHeight="1">
       <c r="H112" s="10"/>
       <c r="DJ112" s="11"/>
       <c r="DV112" s="10"/>

--- a/dmd_app/01_ドキュメント/02_ドキュメントの作成に使用した図一覧.xlsx
+++ b/dmd_app/01_ドキュメント/02_ドキュメントの作成に使用した図一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\dmd_app\01_ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Documents\github-public\dmd_app\01_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0C6122-7EEA-4E49-AA62-9B15698CEA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862F8676-D24E-423E-9EED-78C15923903D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E43B8608-6630-422C-8FB8-DD66C3993456}"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{E43B8608-6630-422C-8FB8-DD66C3993456}"/>
   </bookViews>
   <sheets>
     <sheet name="図一覧" sheetId="168" r:id="rId1"/>
@@ -7182,7 +7182,20 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>demand_graph()</a:t>
+            <a:t>demand</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>_graph()</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
             <a:solidFill>
@@ -17277,8 +17290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73381944-CB5D-4BFE-BBAF-D15EC77BBBF3}">
   <dimension ref="A1:GR194"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CA90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="GR104" sqref="GR104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CG82" sqref="CG82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -18018,7 +18031,7 @@
     <row r="89" spans="8:47" ht="15" customHeight="1">
       <c r="H89" s="10"/>
       <c r="T89" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AU89" s="11"/>
     </row>
